--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
@@ -537,7 +537,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H2">
         <v>2.043375</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N2">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q2">
-        <v>0.8965087582083333</v>
+        <v>0.7423458772499999</v>
       </c>
       <c r="R2">
-        <v>8.068578823875001</v>
+        <v>6.681112895249998</v>
       </c>
       <c r="S2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="T2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H3">
         <v>2.043375</v>
@@ -623,10 +623,10 @@
         <v>72.700791</v>
       </c>
       <c r="O3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q3">
         <v>16.506108756625</v>
@@ -635,10 +635,10 @@
         <v>148.554978809625</v>
       </c>
       <c r="S3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="T3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H4">
         <v>2.043375</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N4">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q4">
-        <v>1.896512870875</v>
+        <v>1.918690754958333</v>
       </c>
       <c r="R4">
-        <v>17.068615837875</v>
+        <v>17.268216794625</v>
       </c>
       <c r="S4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="T4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H5">
         <v>2.043375</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N5">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q5">
-        <v>0.1604330906666667</v>
+        <v>0.4984549944166666</v>
       </c>
       <c r="R5">
-        <v>1.443897816</v>
+        <v>4.48609494975</v>
       </c>
       <c r="S5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="T5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
     </row>
   </sheetData>
